--- a/business/20200520.xlsx
+++ b/business/20200520.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>日期：</t>
   </si>
@@ -89,6 +90,15 @@
   </si>
   <si>
     <t>燕麦片豆腐乳</t>
+  </si>
+  <si>
+    <t>勇哥代付打印机快递到付费</t>
+  </si>
+  <si>
+    <t>周姐代付特仑苏牛奶</t>
+  </si>
+  <si>
+    <t>2件</t>
   </si>
   <si>
     <t>卤牛肉</t>
@@ -117,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -138,7 +148,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,38 +192,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +262,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,44 +290,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,79 +300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,103 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,17 +546,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,22 +581,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,15 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -633,16 +625,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1458,109 +1468,126 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" ht="15.6" spans="1:6">
+    <row r="19" customFormat="1" ht="31.2" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" ht="15.6" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+    <row r="20" customFormat="1" ht="31.2" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="1">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>130</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" ht="15.6" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" s="1">
-        <f>SUM(B2:B19)</f>
-        <v>1846.56</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D21" s="1">
-        <f>SUM(D2:D19)</f>
-        <v>1821.4</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" ht="15.6" spans="1:6">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" ht="15.6" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5">
-        <v>908.4</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <f>SUM(B2:B21)</f>
+        <v>2011.56</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f>SUM(D2:D21)</f>
+        <v>1986.4</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.6" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1">
-        <v>100</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" ht="31.2" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+    <row r="25" ht="15.6" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="5">
+        <v>908.4</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" ht="15.6" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" ht="15.6" spans="1:6">
-      <c r="A27" s="1"/>
+    <row r="27" ht="31.2" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B27" s="1">
-        <f>SUM(B23:B25)</f>
-        <v>3008.4</v>
+        <v>2000</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1569,41 +1596,62 @@
     </row>
     <row r="28" ht="15.6" spans="1:6">
       <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" ht="15.6" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <f>B27-B21</f>
-        <v>1161.84</v>
+        <f>SUM(B25:B27)</f>
+        <v>3008.4</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <f>B27-D21</f>
-        <v>1187</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="6">
-        <v>43971</v>
-      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" ht="15.6" spans="1:6">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:6">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
+        <f>B29-B23</f>
+        <v>996.84</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <f>B29-D23</f>
+        <v>1022</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1612,4 +1660,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="62.4" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="46.8" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/business/20200520.xlsx
+++ b/business/20200520.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>日期：</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>卤菜</t>
+  </si>
+  <si>
+    <t>卤菜原本记账，本款不用记入欠账</t>
   </si>
   <si>
     <t>燕麦片豆腐乳</t>
@@ -127,9 +130,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -148,7 +151,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,8 +232,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,120 +293,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,71 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -643,16 +581,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,137 +664,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -807,6 +810,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1132,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1414,7 +1420,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" ht="15.6" spans="1:6">
+    <row r="16" ht="31.2" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1430,7 +1436,9 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" ht="15.6" spans="1:6">
       <c r="A17" s="1" t="s">
@@ -1452,7 +1460,7 @@
     </row>
     <row r="18" ht="15.6" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <v>79.4</v>
@@ -1470,7 +1478,7 @@
     </row>
     <row r="19" customFormat="1" ht="31.2" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>35</v>
@@ -1488,7 +1496,7 @@
     </row>
     <row r="20" customFormat="1" ht="31.2" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>130</v>
@@ -1503,12 +1511,12 @@
         <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>190</v>
@@ -1527,11 +1535,11 @@
     <row r="22" ht="15.6" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1560,9 +1568,9 @@
     </row>
     <row r="25" ht="15.6" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="5">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
         <v>908.4</v>
       </c>
       <c r="C25" s="5"/>
@@ -1572,7 +1580,7 @@
     </row>
     <row r="26" ht="15.6" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <v>100</v>
@@ -1584,7 +1592,7 @@
     </row>
     <row r="27" ht="31.2" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1">
         <v>2000</v>
@@ -1597,7 +1605,7 @@
     <row r="28" ht="15.6" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1618,11 +1626,11 @@
     <row r="30" ht="15.6" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
@@ -1641,7 +1649,7 @@
         <v>1022</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <v>43971</v>
       </c>
     </row>
@@ -1675,7 +1683,7 @@
   <sheetData>
     <row r="1" ht="62.4" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1">
         <v>35</v>
@@ -1693,7 +1701,7 @@
     </row>
     <row r="2" ht="46.8" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>130</v>
@@ -1708,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
